--- a/data/Raspberry.xlsx
+++ b/data/Raspberry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -158,14 +158,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -175,13 +177,17 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="5"/>
     <cellStyle name="Normal 5" xfId="3"/>
     <cellStyle name="Normal 6" xfId="4"/>
+    <cellStyle name="Normal 7" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -473,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H214"/>
+  <dimension ref="A1:H239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214:F239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4751,13 +4757,525 @@
         <v>54632</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="5"/>
-      <c r="B214" s="5"/>
-      <c r="C214" s="8"/>
-      <c r="D214" s="8"/>
-      <c r="E214" s="8"/>
-      <c r="F214" s="8"/>
+    <row r="214" spans="1:6" ht="15.75">
+      <c r="A214" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214" s="7">
+        <v>2185.1999999999998</v>
+      </c>
+      <c r="C214" s="9">
+        <v>1232</v>
+      </c>
+      <c r="D214" s="3">
+        <v>590</v>
+      </c>
+      <c r="E214" s="4">
+        <v>2205.5865880000001</v>
+      </c>
+      <c r="F214" s="10">
+        <v>20881</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="15.75">
+      <c r="A215" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" s="7">
+        <v>2034</v>
+      </c>
+      <c r="C215" s="9">
+        <v>1534</v>
+      </c>
+      <c r="D215" s="3">
+        <v>536</v>
+      </c>
+      <c r="E215" s="4">
+        <v>2968.283864</v>
+      </c>
+      <c r="F215" s="10">
+        <v>28619</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="15.75">
+      <c r="A216" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" s="7">
+        <v>1113.8</v>
+      </c>
+      <c r="C216" s="9">
+        <v>1580</v>
+      </c>
+      <c r="D216" s="3">
+        <v>540</v>
+      </c>
+      <c r="E216" s="4">
+        <v>3057.2936800000002</v>
+      </c>
+      <c r="F216" s="10">
+        <v>29259</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="15.75">
+      <c r="A217" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B217" s="7">
+        <v>2266.5</v>
+      </c>
+      <c r="C217" s="9">
+        <v>1450</v>
+      </c>
+      <c r="D217" s="3">
+        <v>560</v>
+      </c>
+      <c r="E217" s="4">
+        <v>2805.7442000000001</v>
+      </c>
+      <c r="F217" s="10">
+        <v>25893</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="15.75">
+      <c r="A218" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B218" s="7">
+        <v>3150.7</v>
+      </c>
+      <c r="C218" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D218" s="3">
+        <v>650</v>
+      </c>
+      <c r="E218" s="4">
+        <v>3869.9920000000002</v>
+      </c>
+      <c r="F218" s="10">
+        <v>30769</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="15.75">
+      <c r="A219" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" s="7">
+        <v>1961.6</v>
+      </c>
+      <c r="C219" s="9">
+        <v>2267</v>
+      </c>
+      <c r="D219" s="3">
+        <v>621</v>
+      </c>
+      <c r="E219" s="4">
+        <v>4386.6359320000001</v>
+      </c>
+      <c r="F219" s="10">
+        <v>36506</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="15.75">
+      <c r="A220" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220" s="7">
+        <v>1981.6</v>
+      </c>
+      <c r="C220" s="9">
+        <v>3184</v>
+      </c>
+      <c r="D220" s="3">
+        <v>672</v>
+      </c>
+      <c r="E220" s="4">
+        <v>6161.0272640000003</v>
+      </c>
+      <c r="F220" s="10">
+        <v>47381</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="15.75">
+      <c r="A221" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B221" s="7">
+        <v>1938.6</v>
+      </c>
+      <c r="C221" s="9">
+        <v>4967</v>
+      </c>
+      <c r="D221" s="3">
+        <v>1068</v>
+      </c>
+      <c r="E221" s="4">
+        <v>9611.1251319999992</v>
+      </c>
+      <c r="F221" s="10">
+        <v>46507</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="15.75">
+      <c r="A222" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B222" s="7">
+        <v>2416.6999999999998</v>
+      </c>
+      <c r="C222" s="9">
+        <v>6304</v>
+      </c>
+      <c r="D222" s="3">
+        <v>1120</v>
+      </c>
+      <c r="E222" s="4">
+        <v>12198.214784</v>
+      </c>
+      <c r="F222" s="10">
+        <v>56286</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="15.75">
+      <c r="A223" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B223" s="7">
+        <v>1541.2</v>
+      </c>
+      <c r="C223" s="9">
+        <v>6166</v>
+      </c>
+      <c r="D223" s="3">
+        <v>1357</v>
+      </c>
+      <c r="E223" s="4">
+        <v>11931.185336</v>
+      </c>
+      <c r="F223" s="10">
+        <v>45438</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="15.75">
+      <c r="A224" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B224" s="7">
+        <v>986.2</v>
+      </c>
+      <c r="C224" s="9">
+        <v>11900</v>
+      </c>
+      <c r="D224" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E224" s="4">
+        <v>23026.452399999998</v>
+      </c>
+      <c r="F224" s="10">
+        <v>79333</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="15.75">
+      <c r="A225" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B225" s="7">
+        <v>938.8</v>
+      </c>
+      <c r="C225" s="9">
+        <v>6724</v>
+      </c>
+      <c r="D225" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E225" s="4">
+        <v>13010.913103999999</v>
+      </c>
+      <c r="F225" s="10">
+        <v>39553</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="15.75">
+      <c r="A226" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B226" s="7">
+        <v>1016.1</v>
+      </c>
+      <c r="C226" s="9">
+        <v>8470</v>
+      </c>
+      <c r="D226" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E226" s="4">
+        <v>16389.416120000002</v>
+      </c>
+      <c r="F226" s="10">
+        <v>70583</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="15.75">
+      <c r="A227" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B227" s="7">
+        <v>1063.8</v>
+      </c>
+      <c r="C227" s="9">
+        <v>9258</v>
+      </c>
+      <c r="D227" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E227" s="4">
+        <v>17914.192967999999</v>
+      </c>
+      <c r="F227" s="10">
+        <v>66129</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="15.75">
+      <c r="A228" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B228" s="7">
+        <v>882.3</v>
+      </c>
+      <c r="C228" s="9">
+        <v>9847</v>
+      </c>
+      <c r="D228" s="3">
+        <v>1444</v>
+      </c>
+      <c r="E228" s="4">
+        <v>19053.905611999999</v>
+      </c>
+      <c r="F228" s="10">
+        <v>68193</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="15.75">
+      <c r="A229" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B229" s="7">
+        <v>718.5</v>
+      </c>
+      <c r="C229" s="9">
+        <v>13306</v>
+      </c>
+      <c r="D229" s="3">
+        <v>1950</v>
+      </c>
+      <c r="E229" s="4">
+        <v>25747.056776000001</v>
+      </c>
+      <c r="F229" s="10">
+        <v>68236</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="15.75">
+      <c r="A230" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B230" s="7">
+        <v>946.6</v>
+      </c>
+      <c r="C230" s="9">
+        <v>19804</v>
+      </c>
+      <c r="D230" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E230" s="4">
+        <v>38320.660784</v>
+      </c>
+      <c r="F230" s="10">
+        <v>68290</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="15.75">
+      <c r="A231" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B231" s="7">
+        <v>635.5</v>
+      </c>
+      <c r="C231" s="9">
+        <v>22277</v>
+      </c>
+      <c r="D231" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E231" s="4">
+        <v>43105.905892000002</v>
+      </c>
+      <c r="F231" s="10">
+        <v>67506</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="15.75">
+      <c r="A232" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B232" s="7">
+        <v>922.6</v>
+      </c>
+      <c r="C232" s="9">
+        <v>19834</v>
+      </c>
+      <c r="D232" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E232" s="4">
+        <v>38378.710663999998</v>
+      </c>
+      <c r="F232" s="10">
+        <v>68393</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="15.75">
+      <c r="A233" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B233" s="7">
+        <v>628.5</v>
+      </c>
+      <c r="C233" s="9">
+        <v>18135</v>
+      </c>
+      <c r="D233" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E233" s="4">
+        <v>35091.152459999998</v>
+      </c>
+      <c r="F233" s="10">
+        <v>67167</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="15.75">
+      <c r="A234" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B234" s="7">
+        <v>782.2</v>
+      </c>
+      <c r="C234" s="9">
+        <v>19855</v>
+      </c>
+      <c r="D234" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E234" s="4">
+        <v>38419.345580000001</v>
+      </c>
+      <c r="F234" s="10">
+        <v>68466</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="15.75">
+      <c r="A235" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B235" s="7">
+        <v>1908</v>
+      </c>
+      <c r="C235" s="9">
+        <v>18000</v>
+      </c>
+      <c r="D235" s="3">
+        <v>3086</v>
+      </c>
+      <c r="E235" s="4">
+        <v>34829.928</v>
+      </c>
+      <c r="F235" s="10">
+        <v>58328</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="15.75">
+      <c r="A236" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B236" s="7">
+        <v>1769.4</v>
+      </c>
+      <c r="C236" s="9">
+        <v>18116</v>
+      </c>
+      <c r="D236" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E236" s="4">
+        <v>35054.387536000002</v>
+      </c>
+      <c r="F236" s="10">
+        <v>67096</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="15.75">
+      <c r="A237" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B237" s="7">
+        <v>1554.4</v>
+      </c>
+      <c r="C237" s="9">
+        <v>18116</v>
+      </c>
+      <c r="D237" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E237" s="4">
+        <v>35054.387536000002</v>
+      </c>
+      <c r="F237" s="10">
+        <v>31234</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="15.75">
+      <c r="A238" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B238" s="7">
+        <v>971</v>
+      </c>
+      <c r="C238" s="9">
+        <v>22681</v>
+      </c>
+      <c r="D238" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E238" s="4">
+        <v>43887.644275999999</v>
+      </c>
+      <c r="F238" s="10">
+        <v>36002</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="15.75">
+      <c r="A239" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B239" s="7">
+        <v>472.3</v>
+      </c>
+      <c r="C239" s="9">
+        <v>26228</v>
+      </c>
+      <c r="D239" s="3">
+        <v>5732</v>
+      </c>
+      <c r="E239" s="4">
+        <v>50751.075087999998</v>
+      </c>
+      <c r="F239" s="10">
+        <v>45757</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
